--- a/workbooks/hexadecimal converter.xlsx
+++ b/workbooks/hexadecimal converter.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>OBJECT.CURVE.HELPER.DEPOSIT2</t>
   </si>
@@ -36,6 +36,21 @@
   </si>
   <si>
     <t>The object Id</t>
+  </si>
+  <si>
+    <t>Maturity date of the deposit</t>
+  </si>
+  <si>
+    <t>Reference calendar</t>
+  </si>
+  <si>
+    <t>Number of business days to settle</t>
+  </si>
+  <si>
+    <t>deposit rate</t>
+  </si>
+  <si>
+    <t>Daycount basis</t>
   </si>
 </sst>
 </file>
@@ -353,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,7 +387,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A5" si="0">DEC2HEX(LEN(B2))</f>
+        <f t="shared" ref="A2:A21" si="0">DEC2HEX(LEN(B2))</f>
         <v>50</v>
       </c>
       <c r="B2" t="s">
@@ -399,6 +414,117 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>1C</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/workbooks/hexadecimal converter.xlsx
+++ b/workbooks/hexadecimal converter.xlsx
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>OBJECT.CURVE.HELPER.DEPOSIT2</t>
-  </si>
-  <si>
-    <t>object Id,maturity,calendar,settlement days,deposit rates,daycount basis,trigger</t>
-  </si>
-  <si>
-    <t>this function creates a deposit helper for yield curve building</t>
-  </si>
-  <si>
-    <t>The object Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Maturity date of the deposit</t>
   </si>
@@ -51,6 +39,39 @@
   </si>
   <si>
     <t>Daycount basis</t>
+  </si>
+  <si>
+    <t>OBJECT.IBOR.INDEX</t>
+  </si>
+  <si>
+    <t>objet identifier,fixing historical series,tenor,settlement days,calendar,business days convention,end of month,daycount basis,trigger</t>
+  </si>
+  <si>
+    <t>This function creates an ibor index object</t>
+  </si>
+  <si>
+    <t>Object Identifier</t>
+  </si>
+  <si>
+    <t>The fixing historical series identifier</t>
+  </si>
+  <si>
+    <t>The index maturity</t>
+  </si>
+  <si>
+    <t>The number of settlement days</t>
+  </si>
+  <si>
+    <t>Calendar for fixings</t>
+  </si>
+  <si>
+    <t>Business day convention</t>
+  </si>
+  <si>
+    <t>End-of-month rule</t>
+  </si>
+  <si>
+    <t>Annual Daycount Basis</t>
   </si>
 </sst>
 </file>
@@ -368,135 +389,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C4" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>DEC2HEX(LEN(B1))</f>
-        <v>1C</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C1" t="str">
+        <f>" TempStrNoSize(" &amp; """" &amp; "\x" &amp; A1 &amp; """" &amp; """" &amp; B1 &amp; """" &amp; "),"</f>
+        <v xml:space="preserve"> TempStrNoSize("\x14""Calendar for fixings"),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A21" si="0">DEC2HEX(LEN(B2))</f>
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C16" si="1">" TempStrNoSize(" &amp; """" &amp; "\x" &amp; A2 &amp; """" &amp; """" &amp; B2 &amp; """" &amp; "),"</f>
+        <v xml:space="preserve"> TempStrNoSize("\x17""Business day convention"),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x11""End-of-month rule"),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x15""Annual Daycount Basis"),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>1C</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x1C""Maturity date of the deposit"),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>3F</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x12""Reference calendar"),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>D</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x21""Number of business days to settle"),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>1C</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\xC""deposit rate"),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\xE""Daycount basis"),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x11""OBJECT.IBOR.INDEX"),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x85""objet identifier,fixing historical series,tenor,settlement days,calendar,business days convention,end of month,daycount basis,trigger"),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>2A</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x2A""This function creates an ibor index object"),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x11""Object Identifier"),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x27""The fixing historical series identifier"),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>C</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x12""The index maturity"),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1D</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x1D""The number of settlement days"),</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/workbooks/hexadecimal converter.xlsx
+++ b/workbooks/hexadecimal converter.xlsx
@@ -24,28 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Maturity date of the deposit</t>
-  </si>
-  <si>
-    <t>Reference calendar</t>
-  </si>
-  <si>
-    <t>Number of business days to settle</t>
-  </si>
-  <si>
-    <t>deposit rate</t>
-  </si>
-  <si>
-    <t>Daycount basis</t>
-  </si>
-  <si>
-    <t>OBJECT.IBOR.INDEX</t>
-  </si>
-  <si>
-    <t>objet identifier,fixing historical series,tenor,settlement days,calendar,business days convention,end of month,daycount basis,trigger</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>This function creates an ibor index object</t>
   </si>
@@ -62,16 +41,55 @@
     <t>The number of settlement days</t>
   </si>
   <si>
-    <t>Calendar for fixings</t>
-  </si>
-  <si>
-    <t>Business day convention</t>
-  </si>
-  <si>
-    <t>End-of-month rule</t>
-  </si>
-  <si>
-    <t>Annual Daycount Basis</t>
+    <t xml:space="preserve">            TempStrNoSize("\x19""INSTANCE.SERIE.TEMPORELLE"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x3E""identifiant de l'object,plage de date,plage de valeurs,trigger"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x01""1"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x17""xlObjectTools - Object"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x00"""),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x2D""Cette fonction instancie une serie temporelle"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x11""Object Identifer"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x12""La plage des dates"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x14""La plage des données"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x17""Déclenche le recalcul  "));</t>
+  </si>
+  <si>
+    <t>OBJECT .TIME.SERIES</t>
+  </si>
+  <si>
+    <t>object indentifier,dates,values,trigger</t>
+  </si>
+  <si>
+    <t>xlObjectTools - Object</t>
+  </si>
+  <si>
+    <t>This function creates a time series object</t>
+  </si>
+  <si>
+    <t>The dates</t>
+  </si>
+  <si>
+    <t>The corresponding data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trigger for recalculation   </t>
   </si>
 </sst>
 </file>
@@ -389,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C1:C4"/>
+      <selection activeCell="C11" sqref="C1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,208 +418,235 @@
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>DEC2HEX(LEN(B1))</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" t="str">
         <f>" TempStrNoSize(" &amp; """" &amp; "\x" &amp; A1 &amp; """" &amp; """" &amp; B1 &amp; """" &amp; "),"</f>
-        <v xml:space="preserve"> TempStrNoSize("\x14""Calendar for fixings"),</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> TempStrNoSize("\x13""OBJECT .TIME.SERIES"),</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A21" si="0">DEC2HEX(LEN(B2))</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C16" si="1">" TempStrNoSize(" &amp; """" &amp; "\x" &amp; A2 &amp; """" &amp; """" &amp; B2 &amp; """" &amp; "),"</f>
-        <v xml:space="preserve"> TempStrNoSize("\x17""Business day convention"),</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> TempStrNoSize("\x27""object indentifier,dates,values,trigger"),</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x1""1"),</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x16""xlObjectTools - Object"),</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x0"""),</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x0"""),</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>2A</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x2A""This function creates a time series object"),</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x11""Object Identifier"),</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x9""The dates"),</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x16""The corresponding data"),</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>1C</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x1C""Trigger for recalculation   "),</v>
+      </c>
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x11""End-of-month rule"),</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x15""Annual Daycount Basis"),</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>1C</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1C""Maturity date of the deposit"),</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>2A</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x2A""This function creates an ibor index object"),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x11""Object Identifier"),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x27""The fixing historical series identifier"),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x12""Reference calendar"),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x21""Number of business days to settle"),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>C</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\xC""deposit rate"),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x12""The index maturity"),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>1D</v>
+      </c>
+      <c r="B16" t="s">
         <v>4</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\xE""Daycount basis"),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x11""OBJECT.IBOR.INDEX"),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x85""objet identifier,fixing historical series,tenor,settlement days,calendar,business days convention,end of month,daycount basis,trigger"),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>2A</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x2A""This function creates an ibor index object"),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x11""Object Identifier"),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x27""The fixing historical series identifier"),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x12""The index maturity"),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>1D</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>

--- a/workbooks/hexadecimal converter.xlsx
+++ b/workbooks/hexadecimal converter.xlsx
@@ -24,28 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>This function creates an ibor index object</t>
-  </si>
-  <si>
-    <t>Object Identifier</t>
-  </si>
-  <si>
-    <t>The fixing historical series identifier</t>
-  </si>
-  <si>
-    <t>The index maturity</t>
-  </si>
-  <si>
-    <t>The number of settlement days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x19""INSTANCE.SERIE.TEMPORELLE"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x3E""identifiant de l'object,plage de date,plage de valeurs,trigger"),</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve">            TempStrNoSize("\x01""1"),</t>
   </si>
@@ -56,40 +35,70 @@
     <t xml:space="preserve">            TempStrNoSize("\x00"""),</t>
   </si>
   <si>
-    <t xml:space="preserve">            TempStrNoSize("\x2D""Cette fonction instancie une serie temporelle"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x11""Object Identifer"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x12""La plage des dates"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x14""La plage des données"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x17""Déclenche le recalcul  "));</t>
-  </si>
-  <si>
-    <t>OBJECT .TIME.SERIES</t>
-  </si>
-  <si>
-    <t>object indentifier,dates,values,trigger</t>
-  </si>
-  <si>
     <t>xlObjectTools - Object</t>
   </si>
   <si>
-    <t>This function creates a time series object</t>
-  </si>
-  <si>
-    <t>The dates</t>
-  </si>
-  <si>
-    <t>The corresponding data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trigger for recalculation   </t>
+    <t xml:space="preserve">            TempStrNoSize("\x1B""Trigger for recalculation  ")) ;</t>
+  </si>
+  <si>
+    <t>Trigger for recalculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x1A""xlInitiateOvernightIndex"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x08""CCPPCCP#"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x18""INSTANCE.INDEX.OVERNIGHT"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x5F""Identifiant de l'objet,historique de fixing,jours de règlement,calendrier,base annuelle,trigger"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x2B""Cette fonction instancie un index overnight"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x18""L'identifiant de l'objet"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x16""Historique des fixings"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x21""Les jours de règlement de l'index"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x19""Le calendrier des fixings"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x10""La base annuelle"),</t>
+  </si>
+  <si>
+    <t>OBJECT.OVERNIGHT.INDEX</t>
+  </si>
+  <si>
+    <t>object indentifier,fixings,settlement days,calendar,annual basis,trigger</t>
+  </si>
+  <si>
+    <t>This function creates an overnight index</t>
+  </si>
+  <si>
+    <t>Fixing time series</t>
+  </si>
+  <si>
+    <t>Object identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Excel(xlfRegister, 0, 16, &amp; xDll,</t>
+  </si>
+  <si>
+    <t>Settlment dayx of the index</t>
+  </si>
+  <si>
+    <t>Fixing calendar</t>
+  </si>
+  <si>
+    <t>Annual basis of the index</t>
   </si>
 </sst>
 </file>
@@ -407,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C1:C11"/>
+      <selection activeCell="C13" sqref="C1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,39 +427,39 @@
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>DEC2HEX(LEN(B1))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="str">
-        <f>" TempStrNoSize(" &amp; """" &amp; "\x" &amp; A1 &amp; """" &amp; """" &amp; B1 &amp; """" &amp; "),"</f>
-        <v xml:space="preserve"> TempStrNoSize("\x13""OBJECT .TIME.SERIES"),</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <f>" TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A1)&lt;16,"0","")&amp;A1&amp;""""&amp;""""&amp;B1&amp;""""&amp;"),"</f>
+        <v xml:space="preserve"> TempStrNoSize("\x16""OBJECT.OVERNIGHT.INDEX"),</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A21" si="0">DEC2HEX(LEN(B2))</f>
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C16" si="1">" TempStrNoSize(" &amp; """" &amp; "\x" &amp; A2 &amp; """" &amp; """" &amp; B2 &amp; """" &amp; "),"</f>
-        <v xml:space="preserve"> TempStrNoSize("\x27""object indentifier,dates,values,trigger"),</v>
-      </c>
-      <c r="G2" t="s">
+        <f t="shared" ref="C2:C16" si="1">" TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A2)&lt;16,"0","")&amp;A2&amp;""""&amp;""""&amp;B2&amp;""""&amp;"),"</f>
+        <v xml:space="preserve"> TempStrNoSize("\x48""object indentifier,fixings,settlement days,calendar,annual basis,trigger"),</v>
+      </c>
+      <c r="I2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -460,226 +469,236 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1""1"),</v>
-      </c>
-      <c r="G3" t="s">
+        <v xml:space="preserve"> TempStrNoSize("\x01""1"),</v>
+      </c>
+      <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> TempStrNoSize("\x16""xlObjectTools - Object"),</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x0"""),</v>
-      </c>
-      <c r="G5" t="s">
+        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
+      </c>
+      <c r="I5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x0"""),</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>2A</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x2A""This function creates a time series object"),</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> TempStrNoSize("\x28""This function creates an overnight index"),</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x11""Object Identifier"),</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> TempStrNoSize("\x11""Object identifier"),</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x9""The dates"),</v>
-      </c>
-      <c r="G9" t="s">
+        <v xml:space="preserve"> TempStrNoSize("\x12""Fixing time series"),</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>1B</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x1B""Settlment dayx of the index"),</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x0F""Fixing calendar"),</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x19""Annual basis of the index"),</v>
+      </c>
+      <c r="I12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x16""The corresponding data"),</v>
-      </c>
-      <c r="G10" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x19""Trigger for recalculation"),</v>
+      </c>
+      <c r="I13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>1C</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1C""Trigger for recalculation   "),</v>
-      </c>
-      <c r="G11" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
+      </c>
+      <c r="I14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>2A</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x2A""This function creates an ibor index object"),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x11""Object Identifier"),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x27""The fixing historical series identifier"),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x12""The index maturity"),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>1D</v>
-      </c>
-      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
+      </c>
+      <c r="I16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1D""The number of settlement days"),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <f>IF(A5&lt;100,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>

--- a/workbooks/hexadecimal converter.xlsx
+++ b/workbooks/hexadecimal converter.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve">            TempStrNoSize("\x01""1"),</t>
   </si>
@@ -38,67 +38,46 @@
     <t>xlObjectTools - Object</t>
   </si>
   <si>
-    <t xml:space="preserve">            TempStrNoSize("\x1B""Trigger for recalculation  ")) ;</t>
-  </si>
-  <si>
     <t>Trigger for recalculation</t>
   </si>
   <si>
-    <t xml:space="preserve">            TempStrNoSize("\x1A""xlInitiateOvernightIndex"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x08""CCPPCCP#"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x18""INSTANCE.INDEX.OVERNIGHT"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x5F""Identifiant de l'objet,historique de fixing,jours de règlement,calendrier,base annuelle,trigger"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x2B""Cette fonction instancie un index overnight"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x18""L'identifiant de l'objet"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x16""Historique des fixings"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x21""Les jours de règlement de l'index"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x19""Le calendrier des fixings"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x10""La base annuelle"),</t>
-  </si>
-  <si>
-    <t>OBJECT.OVERNIGHT.INDEX</t>
-  </si>
-  <si>
-    <t>object indentifier,fixings,settlement days,calendar,annual basis,trigger</t>
-  </si>
-  <si>
-    <t>This function creates an overnight index</t>
-  </si>
-  <si>
-    <t>Fixing time series</t>
-  </si>
-  <si>
     <t>Object identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">        Excel(xlfRegister, 0, 16, &amp; xDll,</t>
-  </si>
-  <si>
-    <t>Settlment dayx of the index</t>
-  </si>
-  <si>
-    <t>Fixing calendar</t>
-  </si>
-  <si>
-    <t>Annual basis of the index</t>
+    <t xml:space="preserve">            TempStrNoSize("\x1A""INSTANCE.COURBE.INTERPOLEE"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x42""Identifiant de l'objet,Date de calcul,calendrier,Helpers,Trigger"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x62""Cette fonction instancie une courbe de taux interpolée à partir des instruments passés en argument"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x11""Object Identifer"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x11""La date de calcul"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x1B""Les helpers des instruments"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x15""déclenche le calcul  "));</t>
+  </si>
+  <si>
+    <t>OBJECT.CURVE.INTERPOLATE</t>
+  </si>
+  <si>
+    <t>object indentifier,calculation date,helper,trigger</t>
+  </si>
+  <si>
+    <t>This function creates an interpolated curve</t>
+  </si>
+  <si>
+    <t>The calculation date</t>
+  </si>
+  <si>
+    <t>The curve components</t>
   </si>
 </sst>
 </file>
@@ -419,7 +398,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C1:C13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,33 +409,33 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>DEC2HEX(LEN(B1))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="str">
         <f>" TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A1)&lt;16,"0","")&amp;A1&amp;""""&amp;""""&amp;B1&amp;""""&amp;"),"</f>
-        <v xml:space="preserve"> TempStrNoSize("\x16""OBJECT.OVERNIGHT.INDEX"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x18""OBJECT.CURVE.INTERPOLATE"),</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A21" si="0">DEC2HEX(LEN(B2))</f>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C16" si="1">" TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A2)&lt;16,"0","")&amp;A2&amp;""""&amp;""""&amp;B2&amp;""""&amp;"),"</f>
-        <v xml:space="preserve"> TempStrNoSize("\x48""object indentifier,fixings,settlement days,calendar,annual basis,trigger"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x32""object indentifier,calculation date,helper,trigger"),</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -472,7 +451,7 @@
         <v xml:space="preserve"> TempStrNoSize("\x01""1"),</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -488,7 +467,7 @@
         <v xml:space="preserve"> TempStrNoSize("\x16""xlObjectTools - Object"),</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -501,7 +480,7 @@
         <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -514,23 +493,23 @@
         <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
       </c>
       <c r="I6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>2B</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x28""This function creates an overnight index"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x2B""This function creates an interpolated curve"),</v>
       </c>
       <c r="I7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -539,94 +518,82 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> TempStrNoSize("\x11""Object identifier"),</v>
       </c>
       <c r="I8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x12""Fixing time series"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x14""The calculation date"),</v>
       </c>
       <c r="I9" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>1B</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1B""Settlment dayx of the index"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x14""The curve components"),</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>F</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x0F""Fixing calendar"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x19""Trigger for recalculation"),</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x19""Annual basis of the index"),</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
+        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x19""Trigger for recalculation"),</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
+        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -638,9 +605,6 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
       </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
@@ -651,9 +615,6 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
       </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
@@ -663,9 +624,6 @@
       <c r="C16" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
-      </c>
-      <c r="I16" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">

--- a/workbooks/hexadecimal converter.xlsx
+++ b/workbooks/hexadecimal converter.xlsx
@@ -24,60 +24,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t xml:space="preserve">            TempStrNoSize("\x01""1"),</t>
   </si>
   <si>
-    <t xml:space="preserve">            TempStrNoSize("\x17""xlObjectTools - Object"),</t>
-  </si>
-  <si>
     <t xml:space="preserve">            TempStrNoSize("\x00"""),</t>
   </si>
   <si>
-    <t>xlObjectTools - Object</t>
-  </si>
-  <si>
-    <t>Trigger for recalculation</t>
-  </si>
-  <si>
-    <t>Object identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x1A""INSTANCE.COURBE.INTERPOLEE"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x42""Identifiant de l'objet,Date de calcul,calendrier,Helpers,Trigger"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x62""Cette fonction instancie une courbe de taux interpolée à partir des instruments passés en argument"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x11""Object Identifer"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x11""La date de calcul"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x1B""Les helpers des instruments"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x15""déclenche le calcul  "));</t>
-  </si>
-  <si>
-    <t>OBJECT.CURVE.INTERPOLATE</t>
-  </si>
-  <si>
-    <t>object indentifier,calculation date,helper,trigger</t>
-  </si>
-  <si>
-    <t>This function creates an interpolated curve</t>
-  </si>
-  <si>
-    <t>The calculation date</t>
-  </si>
-  <si>
-    <t>The curve components</t>
+    <t xml:space="preserve">            TempStrNoSize("\x16""CALENDRIER.GAP.FINANCE"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x36""Date de départ,Période,Calendrier,Convention,Règle EOM"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x19""xlObjectTools - Calendar"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x7B""Cette fonction calcule la date relative à une date de départ, d'une période, d'un calendrier et d'une convention de calcul."),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x11""La date de départ"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x2E""L'identifiant de la période (O/N, 1W, 3M, etc)"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x0D""Le calendrier"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x1F""La convention de fin de période"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x27""La règle d'ajustement de fin de mois   ")) ;</t>
+  </si>
+  <si>
+    <t>CALENDAR.GAP</t>
+  </si>
+  <si>
+    <t>start date,period,calendar,convention,EOM rule</t>
+  </si>
+  <si>
+    <t>xlObjectTools - Calendar</t>
+  </si>
+  <si>
+    <t>This function returns the date corresponding to the gap provided</t>
+  </si>
+  <si>
+    <t>The start date</t>
+  </si>
+  <si>
+    <t>Period identifier (O/N, 1W, etc)</t>
+  </si>
+  <si>
+    <t>Reference Calendar</t>
+  </si>
+  <si>
+    <t>End of period adjustement convention</t>
+  </si>
+  <si>
+    <t>End-of-month rule</t>
   </si>
 </sst>
 </file>
@@ -395,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C12" sqref="C1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,39 +412,39 @@
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>DEC2HEX(LEN(B1))</f>
-        <v>18</v>
+        <v>C</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="str">
         <f>" TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A1)&lt;16,"0","")&amp;A1&amp;""""&amp;""""&amp;B1&amp;""""&amp;"),"</f>
-        <v xml:space="preserve"> TempStrNoSize("\x18""OBJECT.CURVE.INTERPOLATE"),</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> TempStrNoSize("\x0C""CALENDAR.GAP"),</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A21" si="0">DEC2HEX(LEN(B2))</f>
-        <v>32</v>
+        <v>2E</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C16" si="1">" TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A2)&lt;16,"0","")&amp;A2&amp;""""&amp;""""&amp;B2&amp;""""&amp;"),"</f>
-        <v xml:space="preserve"> TempStrNoSize("\x32""object indentifier,calculation date,helper,trigger"),</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> TempStrNoSize("\x2E""start date,period,calendar,convention,EOM rule"),</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -450,173 +456,179 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> TempStrNoSize("\x01""1"),</v>
       </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x16""xlObjectTools - Object"),</v>
-      </c>
-      <c r="I4" t="s">
+        <v xml:space="preserve"> TempStrNoSize("\x18""xlObjectTools - Calendar"),</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
+      </c>
+      <c r="H5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C5" t="str">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
       </c>
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>2B</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x40""This function returns the date corresponding to the gap provided"),</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x2B""This function creates an interpolated curve"),</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x11""Object identifier"),</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> TempStrNoSize("\x0E""The start date"),</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x14""The calculation date"),</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v xml:space="preserve"> TempStrNoSize("\x20""Period identifier (O/N, 1W, etc)"),</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x14""The curve components"),</v>
-      </c>
-      <c r="I10" t="s">
+        <v xml:space="preserve"> TempStrNoSize("\x12""Reference Calendar"),</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x24""End of period adjustement convention"),</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x19""Trigger for recalculation"),</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve"> TempStrNoSize("\x11""End-of-month rule"),</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" t="str">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" t="str">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/workbooks/hexadecimal converter.xlsx
+++ b/workbooks/hexadecimal converter.xlsx
@@ -32,58 +32,58 @@
     <t xml:space="preserve">            TempStrNoSize("\x00"""),</t>
   </si>
   <si>
-    <t xml:space="preserve">            TempStrNoSize("\x16""CALENDRIER.GAP.FINANCE"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x36""Date de départ,Période,Calendrier,Convention,Règle EOM"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x19""xlObjectTools - Calendar"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x7B""Cette fonction calcule la date relative à une date de départ, d'une période, d'un calendrier et d'une convention de calcul."),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x11""La date de départ"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x2E""L'identifiant de la période (O/N, 1W, 3M, etc)"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x0D""Le calendrier"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x1F""La convention de fin de période"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x27""La règle d'ajustement de fin de mois   ")) ;</t>
-  </si>
-  <si>
-    <t>CALENDAR.GAP</t>
-  </si>
-  <si>
-    <t>start date,period,calendar,convention,EOM rule</t>
-  </si>
-  <si>
-    <t>xlObjectTools - Calendar</t>
-  </si>
-  <si>
-    <t>This function returns the date corresponding to the gap provided</t>
-  </si>
-  <si>
-    <t>The start date</t>
-  </si>
-  <si>
-    <t>Period identifier (O/N, 1W, etc)</t>
-  </si>
-  <si>
-    <t>Reference Calendar</t>
-  </si>
-  <si>
-    <t>End of period adjustement convention</t>
-  </si>
-  <si>
-    <t>End-of-month rule</t>
+    <t xml:space="preserve">            TempStrNoSize("\x13""COURBE.TAUX.FORWARD"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x31""Identifiant de la courbe,t1,t2,convention,trigger"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x1C""xlObjectTools - Yield Curve"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x3B""Cette fonction extrait le taux forward de la courbe pointée"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x11""Object Identifer"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x2A""La date de positionnement de l'observation"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x26""La date de terminaison du taux forward"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x29""L'indentifiant de la convention de calcul"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TempStrNoSize("\x17""Déclenche le recalcul  "));</t>
+  </si>
+  <si>
+    <t>CURVE.FORWARD.RATE</t>
+  </si>
+  <si>
+    <t>curve identifier,time 1,time 2,convention,trigger</t>
+  </si>
+  <si>
+    <t>xlObjectTools - Yield Curve</t>
+  </si>
+  <si>
+    <t>This function computes the forward rate for the corresponding dates</t>
+  </si>
+  <si>
+    <t>Curve identifier</t>
+  </si>
+  <si>
+    <t>The forward date</t>
+  </si>
+  <si>
+    <t>The maturity date</t>
+  </si>
+  <si>
+    <t>The identifier of the convention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trigger for recalculation  </t>
   </si>
 </sst>
 </file>
@@ -415,14 +415,14 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>DEC2HEX(LEN(B1))</f>
-        <v>C</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="str">
         <f>" TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A1)&lt;16,"0","")&amp;A1&amp;""""&amp;""""&amp;B1&amp;""""&amp;"),"</f>
-        <v xml:space="preserve"> TempStrNoSize("\x0C""CALENDAR.GAP"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x12""CURVE.FORWARD.RATE"),</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -431,14 +431,14 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A21" si="0">DEC2HEX(LEN(B2))</f>
-        <v>2E</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C16" si="1">" TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A2)&lt;16,"0","")&amp;A2&amp;""""&amp;""""&amp;B2&amp;""""&amp;"),"</f>
-        <v xml:space="preserve"> TempStrNoSize("\x2E""start date,period,calendar,convention,EOM rule"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x31""curve identifier,time 1,time 2,convention,trigger"),</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
@@ -463,14 +463,14 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>1B</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x18""xlObjectTools - Calendar"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x1B""xlObjectTools - Yield Curve"),</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -505,14 +505,14 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x40""This function returns the date corresponding to the gap provided"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x43""This function computes the forward rate for the corresponding dates"),</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
@@ -521,14 +521,14 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>E</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x0E""The start date"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x10""Curve identifier"),</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -537,14 +537,14 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x20""Period identifier (O/N, 1W, etc)"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x10""The forward date"),</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -553,14 +553,14 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x12""Reference Calendar"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x11""The maturity date"),</v>
       </c>
       <c r="H10" t="s">
         <v>8</v>
@@ -569,14 +569,14 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x24""End of period adjustement convention"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x20""The identifier of the convention"),</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
@@ -585,14 +585,14 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1B</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x11""End-of-month rule"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x1B""Trigger for recalculation  "),</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>

--- a/workbooks/hexadecimal converter.xlsx
+++ b/workbooks/hexadecimal converter.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t xml:space="preserve">            TempStrNoSize("\x01""1"),</t>
   </si>
@@ -59,24 +59,12 @@
     <t xml:space="preserve">            TempStrNoSize("\x17""Déclenche le recalcul  "));</t>
   </si>
   <si>
-    <t>CURVE.FORWARD.RATE</t>
-  </si>
-  <si>
-    <t>curve identifier,time 1,time 2,convention,trigger</t>
-  </si>
-  <si>
     <t>xlObjectTools - Yield Curve</t>
   </si>
   <si>
     <t>This function computes the forward rate for the corresponding dates</t>
   </si>
   <si>
-    <t>Curve identifier</t>
-  </si>
-  <si>
-    <t>The forward date</t>
-  </si>
-  <si>
     <t>The maturity date</t>
   </si>
   <si>
@@ -84,6 +72,15 @@
   </si>
   <si>
     <t xml:space="preserve">Trigger for recalculation  </t>
+  </si>
+  <si>
+    <t>CURVE.ZERO.RATE</t>
+  </si>
+  <si>
+    <t>This function gives yield curve's zero rate corresponding to the passed maturity date and convention</t>
+  </si>
+  <si>
+    <t>Trigger the calculation</t>
   </si>
 </sst>
 </file>
@@ -404,7 +401,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C1:C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,14 +412,14 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>DEC2HEX(LEN(B1))</f>
-        <v>12</v>
+        <v>F</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C1" t="str">
         <f>" TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A1)&lt;16,"0","")&amp;A1&amp;""""&amp;""""&amp;B1&amp;""""&amp;"),"</f>
-        <v xml:space="preserve"> TempStrNoSize("\x12""CURVE.FORWARD.RATE"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x0F""CURVE.ZERO.RATE"),</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -431,14 +428,14 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A21" si="0">DEC2HEX(LEN(B2))</f>
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C16" si="1">" TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A2)&lt;16,"0","")&amp;A2&amp;""""&amp;""""&amp;B2&amp;""""&amp;"),"</f>
-        <v xml:space="preserve"> TempStrNoSize("\x31""curve identifier,time 1,time 2,convention,trigger"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x64""This function gives yield curve's zero rate corresponding to the passed maturity date and convention"),</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
@@ -466,7 +463,7 @@
         <v>1B</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
@@ -508,7 +505,7 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
@@ -521,14 +518,14 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x10""Curve identifier"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x11""The maturity date"),</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -537,14 +534,14 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x10""The forward date"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x17""Trigger the calculation"),</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -556,7 +553,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
@@ -572,7 +569,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
@@ -588,7 +585,7 @@
         <v>1B</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>

--- a/workbooks/hexadecimal converter.xlsx
+++ b/workbooks/hexadecimal converter.xlsx
@@ -24,63 +24,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x01""1"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x00"""),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x13""COURBE.TAUX.FORWARD"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x31""Identifiant de la courbe,t1,t2,convention,trigger"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x1C""xlObjectTools - Yield Curve"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x3B""Cette fonction extrait le taux forward de la courbe pointée"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x11""Object Identifer"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x2A""La date de positionnement de l'observation"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x26""La date de terminaison du taux forward"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x29""L'indentifiant de la convention de calcul"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TempStrNoSize("\x17""Déclenche le recalcul  "));</t>
-  </si>
-  <si>
-    <t>xlObjectTools - Yield Curve</t>
-  </si>
-  <si>
-    <t>This function computes the forward rate for the corresponding dates</t>
-  </si>
-  <si>
-    <t>The maturity date</t>
-  </si>
-  <si>
-    <t>The identifier of the convention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trigger for recalculation  </t>
-  </si>
-  <si>
-    <t>CURVE.ZERO.RATE</t>
-  </si>
-  <si>
-    <t>This function gives yield curve's zero rate corresponding to the passed maturity date and convention</t>
-  </si>
-  <si>
-    <t>Trigger the calculation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+  <si>
+    <t>xlInitiateInterestRateSwapBootstrapHelper2</t>
+  </si>
+  <si>
+    <t>PCCCPPPEPPCPP#</t>
+  </si>
+  <si>
+    <t>OBJECT.CURVE.HELPER.SWAP</t>
+  </si>
+  <si>
+    <t>xlObjectTools - Object</t>
+  </si>
+  <si>
+    <t>This function creates an interest rate swap helper for interpolation purpose</t>
+  </si>
+  <si>
+    <t>The frequency of the fixed rate leg</t>
+  </si>
+  <si>
+    <t>The daycount convention of the fixed rate leg</t>
+  </si>
+  <si>
+    <t>The fixed rate of the swap</t>
+  </si>
+  <si>
+    <t>Settlement days</t>
+  </si>
+  <si>
+    <t>Settlement calendar</t>
+  </si>
+  <si>
+    <t>The maturity tenor of the swap</t>
+  </si>
+  <si>
+    <t>The helper identifier</t>
+  </si>
+  <si>
+    <t>The frequency of the floating leg</t>
+  </si>
+  <si>
+    <t>The daycount convention of the floting leg</t>
+  </si>
+  <si>
+    <t>Object Id,tenor,calendar,settlement days,fixed leg frequency,fixed leg daycount basis,fixed leg rate,float leg frequency,float leg daycount basis,reference index,discounting curve,trigger</t>
+  </si>
+  <si>
+    <t>The reference index of the floating leg</t>
+  </si>
+  <si>
+    <t>The discounting curve (optional)</t>
+  </si>
+  <si>
+    <t>Trigger for recalculation</t>
   </si>
 </sst>
 </file>
@@ -398,274 +395,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C1" sqref="C1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="108" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f>DEC2HEX(LEN(B1))</f>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" t="str">
+        <f>"Excel(xlfRegister, 0, "&amp;SUM(D:D) + 2 &amp; ", &amp; xDll,"</f>
+        <v>Excel(xlfRegister, 0, 22, &amp; xDll,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>DEC2HEX(LEN(B2))</f>
+        <v>2A</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C20" si="0">IF(B2="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A2)&lt;16,"0","")&amp;A2&amp;""""&amp;""""&amp;B2&amp;""""&amp;"),")</f>
+        <v xml:space="preserve"> TempStrNoSize("\x2A""xlInitiateInterestRateSwapBootstrapHelper2"),</v>
+      </c>
+      <c r="D2">
+        <f>IF(C2&lt;&gt;"",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A22" si="1">DEC2HEX(LEN(B3))</f>
+        <v>E</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x0E""PCCCPPPEPPCPP#"),</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D37" si="2">IF(C3&lt;&gt;"",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x18""OBJECT.CURVE.HELPER.SWAP"),</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="1"/>
+        <v>BB</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\xBB""Object Id,tenor,calendar,settlement days,fixed leg frequency,fixed leg daycount basis,fixed leg rate,float leg frequency,float leg daycount basis,reference index,discounting curve,trigger"),</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x01""1"),</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x16""xlObjectTools - Object"),</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="1"/>
+        <v>4C</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x4C""This function creates an interest rate swap helper for interpolation purpose"),</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x15""The helper identifier"),</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="1"/>
+        <v>1E</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x1E""The maturity tenor of the swap"),</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x13""Settlement calendar"),</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x0F""Settlement days"),</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x23""The frequency of the fixed rate leg"),</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="1"/>
+        <v>2D</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x2D""The daycount convention of the fixed rate leg"),</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="1"/>
+        <v>1A</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x1A""The fixed rate of the swap"),</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x21""The frequency of the floating leg"),</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="1"/>
+        <v>2A</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x2A""The daycount convention of the floting leg"),</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="1"/>
+        <v>1A</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x1A""The fixed rate of the swap"),</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x27""The reference index of the floating leg"),</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="str">
-        <f>" TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A1)&lt;16,"0","")&amp;A1&amp;""""&amp;""""&amp;B1&amp;""""&amp;"),"</f>
-        <v xml:space="preserve"> TempStrNoSize("\x0F""CURVE.ZERO.RATE"),</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f t="shared" ref="A2:A21" si="0">DEC2HEX(LEN(B2))</f>
-        <v>64</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x20""The discounting curve (optional)"),</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C16" si="1">" TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A2)&lt;16,"0","")&amp;A2&amp;""""&amp;""""&amp;B2&amp;""""&amp;"),"</f>
-        <v xml:space="preserve"> TempStrNoSize("\x64""This function gives yield curve's zero rate corresponding to the passed maturity date and convention"),</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x01""1"),</v>
-      </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>1B</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1B""xlObjectTools - Yield Curve"),</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x43""This function computes the forward rate for the corresponding dates"),</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x11""The maturity date"),</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x17""Trigger the calculation"),</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x11""The maturity date"),</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x20""The identifier of the convention"),</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>1B</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1B""Trigger for recalculation  "),</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> TempStrNoSize("\x00"""),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C21" t="b">
-        <f>IF(A5&lt;100,TRUE,FALSE)</f>
+      <c r="C21" t="str">
+        <f>IF(B21="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A21)&lt;16,"0","")&amp;A21&amp;""""&amp;""""&amp;B21&amp;""""&amp;"),")</f>
+        <v xml:space="preserve"> TempStrNoSize("\x19""Trigger for recalculation"),</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" ref="C22:C37" si="3">IF(B22="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A22)&lt;16,"0","")&amp;A22&amp;""""&amp;""""&amp;B22&amp;""""&amp;"),")</f>
+        <v/>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>

--- a/workbooks/hexadecimal converter.xlsx
+++ b/workbooks/hexadecimal converter.xlsx
@@ -26,15 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
-    <t>xlInitiateInterestRateSwapBootstrapHelper2</t>
-  </si>
-  <si>
-    <t>PCCCPPPEPPCPP#</t>
-  </si>
-  <si>
-    <t>OBJECT.CURVE.HELPER.SWAP</t>
-  </si>
-  <si>
     <t>xlObjectTools - Object</t>
   </si>
   <si>
@@ -68,9 +59,6 @@
     <t>The daycount convention of the floting leg</t>
   </si>
   <si>
-    <t>Object Id,tenor,calendar,settlement days,fixed leg frequency,fixed leg daycount basis,fixed leg rate,float leg frequency,float leg daycount basis,reference index,discounting curve,trigger</t>
-  </si>
-  <si>
     <t>The reference index of the floating leg</t>
   </si>
   <si>
@@ -78,6 +66,18 @@
   </si>
   <si>
     <t>Trigger for recalculation</t>
+  </si>
+  <si>
+    <t>xlRetrieveError</t>
+  </si>
+  <si>
+    <t>BPP#</t>
+  </si>
+  <si>
+    <t>ADDIN.RETRIEVE.ERROR</t>
+  </si>
+  <si>
+    <t>This function retrieves the current error associated with a given range</t>
   </si>
 </sst>
 </file>
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,14 +416,14 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>DEC2HEX(LEN(B2))</f>
-        <v>2A</v>
+        <v>F</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C20" si="0">IF(B2="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A2)&lt;16,"0","")&amp;A2&amp;""""&amp;""""&amp;B2&amp;""""&amp;"),")</f>
-        <v xml:space="preserve"> TempStrNoSize("\x2A""xlInitiateInterestRateSwapBootstrapHelper2"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x0F""xlRetrieveError"),</v>
       </c>
       <c r="D2">
         <f>IF(C2&lt;&gt;"",1,0)</f>
@@ -433,14 +433,14 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A22" si="1">DEC2HEX(LEN(B3))</f>
-        <v>E</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x0E""PCCCPPPEPPCPP#"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x04""BPP#"),</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D37" si="2">IF(C3&lt;&gt;"",1,0)</f>
@@ -450,14 +450,14 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x18""OBJECT.CURVE.HELPER.SWAP"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x14""ADDIN.RETRIEVE.ERROR"),</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
@@ -467,14 +467,14 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="1"/>
-        <v>BB</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\xBB""Object Id,tenor,calendar,settlement days,fixed leg frequency,fixed leg daycount basis,fixed leg rate,float leg frequency,float leg daycount basis,reference index,discounting curve,trigger"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x47""This function retrieves the current error associated with a given range"),</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
@@ -504,7 +504,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -521,7 +521,7 @@
         <v>4C</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -538,7 +538,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -555,7 +555,7 @@
         <v>1E</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -589,7 +589,7 @@
         <v>F</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -606,7 +606,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -623,7 +623,7 @@
         <v>2D</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -640,7 +640,7 @@
         <v>1A</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -657,7 +657,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -674,7 +674,7 @@
         <v>2A</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -691,7 +691,7 @@
         <v>1A</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -708,7 +708,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -725,7 +725,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -742,7 +742,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C21" t="str">
         <f>IF(B21="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A21)&lt;16,"0","")&amp;A21&amp;""""&amp;""""&amp;B21&amp;""""&amp;"),")</f>

--- a/workbooks/hexadecimal converter.xlsx
+++ b/workbooks/hexadecimal converter.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15192" windowHeight="7818"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,30 +29,12 @@
     <t>xlObjectTools - Object</t>
   </si>
   <si>
-    <t>This function creates an interest rate swap helper for interpolation purpose</t>
-  </si>
-  <si>
     <t>The frequency of the fixed rate leg</t>
   </si>
   <si>
-    <t>The daycount convention of the fixed rate leg</t>
-  </si>
-  <si>
     <t>The fixed rate of the swap</t>
   </si>
   <si>
-    <t>Settlement days</t>
-  </si>
-  <si>
-    <t>Settlement calendar</t>
-  </si>
-  <si>
-    <t>The maturity tenor of the swap</t>
-  </si>
-  <si>
-    <t>The helper identifier</t>
-  </si>
-  <si>
     <t>The frequency of the floating leg</t>
   </si>
   <si>
@@ -68,16 +50,34 @@
     <t>Trigger for recalculation</t>
   </si>
   <si>
-    <t>xlRetrieveError</t>
-  </si>
-  <si>
-    <t>BPP#</t>
-  </si>
-  <si>
     <t>ADDIN.RETRIEVE.ERROR</t>
   </si>
   <si>
-    <t>This function retrieves the current error associated with a given range</t>
+    <t>INSTANCE.AJUSTED.CURVE</t>
+  </si>
+  <si>
+    <t>CCPPPPCCPP#</t>
+  </si>
+  <si>
+    <t>object identifier,calculation date,settlement date,instrument identifiers,quotes,calendar,fitting method,bond selection rule,trigger</t>
+  </si>
+  <si>
+    <t>This function creates a curve fitted on the selected intruments</t>
+  </si>
+  <si>
+    <t>Object Identifier</t>
+  </si>
+  <si>
+    <t>The settlement date of the curve</t>
+  </si>
+  <si>
+    <t>The instruments used to fit the curve</t>
+  </si>
+  <si>
+    <t>The calendar of the curve</t>
+  </si>
+  <si>
+    <t>The instrument selection rule</t>
   </si>
 </sst>
 </file>
@@ -397,352 +397,353 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="108" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C1" t="str">
         <f>"Excel(xlfRegister, 0, "&amp;SUM(D:D) + 2 &amp; ", &amp; xDll,"</f>
         <v>Excel(xlfRegister, 0, 22, &amp; xDll,</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
         <f>DEC2HEX(LEN(B2))</f>
-        <v>F</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C20" si="0">IF(B2="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A2)&lt;16,"0","")&amp;A2&amp;""""&amp;""""&amp;B2&amp;""""&amp;"),")</f>
-        <v xml:space="preserve"> TempStrNoSize("\x0F""xlRetrieveError"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x16""INSTANCE.AJUSTED.CURVE"),</v>
       </c>
       <c r="D2">
         <f>IF(C2&lt;&gt;"",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A22" si="1">DEC2HEX(LEN(B3))</f>
-        <v>4</v>
+        <v>B</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x04""BPP#"),</v>
+        <f>IF(B3="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A3)&lt;16,"0","")&amp;A3&amp;""""&amp;""""&amp;B3&amp;""""&amp;"),")</f>
+        <v xml:space="preserve"> TempStrNoSize("\x0B""CCPPPPCCPP#"),</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D37" si="2">IF(C3&lt;&gt;"",1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x14""ADDIN.RETRIEVE.ERROR"),</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="str">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x84""object identifier,calculation date,settlement date,instrument identifiers,quotes,calendar,fitting method,bond selection rule,trigger"),</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x01""1"),</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="str">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x14""ADDIN.RETRIEVE.ERROR"),</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x16""xlObjectTools - Object"),</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="str">
+        <f t="shared" si="1"/>
+        <v>3F</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x3F""This function creates a curve fitted on the selected intruments"),</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x11""Object Identifier"),</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x20""The settlement date of the curve"),</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="str">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x25""The instruments used to fit the curve"),</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="str">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x19""The calendar of the curve"),</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="str">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x23""The frequency of the fixed rate leg"),</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="str">
+        <f t="shared" si="1"/>
+        <v>1D</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x47""This function retrieves the current error associated with a given range"),</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x01""1"),</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x16""xlObjectTools - Object"),</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f t="shared" si="1"/>
-        <v>4C</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x4C""This function creates an interest rate swap helper for interpolation purpose"),</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x15""The helper identifier"),</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f t="shared" si="1"/>
-        <v>1E</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x1D""The instrument selection rule"),</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="str">
+        <f t="shared" si="1"/>
+        <v>1A</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x1A""The fixed rate of the swap"),</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x21""The frequency of the floating leg"),</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="str">
+        <f t="shared" si="1"/>
+        <v>2A</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x2A""The daycount convention of the floting leg"),</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="str">
+        <f t="shared" si="1"/>
+        <v>1A</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x1A""The fixed rate of the swap"),</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x27""The reference index of the floating leg"),</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> TempStrNoSize("\x20""The discounting curve (optional)"),</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="str">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>7</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1E""The maturity tenor of the swap"),</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x13""Settlement calendar"),</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x0F""Settlement days"),</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x23""The frequency of the fixed rate leg"),</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" si="1"/>
-        <v>2D</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x2D""The daycount convention of the fixed rate leg"),</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f t="shared" si="1"/>
-        <v>1A</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1A""The fixed rate of the swap"),</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x21""The frequency of the floating leg"),</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f t="shared" si="1"/>
-        <v>2A</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x2A""The daycount convention of the floting leg"),</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f t="shared" si="1"/>
-        <v>1A</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1A""The fixed rate of the swap"),</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x27""The reference index of the floating leg"),</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x20""The discounting curve (optional)"),</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
       </c>
       <c r="C21" t="str">
         <f>IF(B21="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A21)&lt;16,"0","")&amp;A21&amp;""""&amp;""""&amp;B21&amp;""""&amp;"),")</f>
@@ -753,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -767,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C23" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -777,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C24" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -787,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C25" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -797,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C26" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -807,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C27" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -817,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C28" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -827,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C29" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -837,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C30" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -847,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C31" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -857,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -867,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C33" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -877,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C34" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -887,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C35" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -897,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C36" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -907,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C37" t="str">
         <f t="shared" si="3"/>
         <v/>

--- a/workbooks/hexadecimal converter.xlsx
+++ b/workbooks/hexadecimal converter.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>xlObjectTools - Object</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>The frequency of the fixed rate leg</t>
   </si>
@@ -62,12 +59,6 @@
     <t>object identifier,calculation date,settlement date,instrument identifiers,quotes,calendar,fitting method,bond selection rule,trigger</t>
   </si>
   <si>
-    <t>This function creates a curve fitted on the selected intruments</t>
-  </si>
-  <si>
-    <t>Object Identifier</t>
-  </si>
-  <si>
     <t>The settlement date of the curve</t>
   </si>
   <si>
@@ -77,7 +68,19 @@
     <t>The calendar of the curve</t>
   </si>
   <si>
-    <t>The instrument selection rule</t>
+    <t>This function provide the eigen vectors of Schur's decomposition</t>
+  </si>
+  <si>
+    <t>The matrix to decompose</t>
+  </si>
+  <si>
+    <t>matrix identifier,trigger</t>
+  </si>
+  <si>
+    <t>This function provide Schur decomposition's eigen values</t>
+  </si>
+  <si>
+    <t>Matrix identifier</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
@@ -420,7 +423,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C20" si="0">IF(B2="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A2)&lt;16,"0","")&amp;A2&amp;""""&amp;""""&amp;B2&amp;""""&amp;"),")</f>
@@ -437,7 +440,7 @@
         <v>B</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="str">
         <f>IF(B3="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A3)&lt;16,"0","")&amp;A3&amp;""""&amp;""""&amp;B3&amp;""""&amp;"),")</f>
@@ -454,7 +457,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -471,7 +474,7 @@
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -502,14 +505,14 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x16""xlObjectTools - Object"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x19""matrix identifier,trigger"),</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
@@ -519,14 +522,14 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f t="shared" si="1"/>
-        <v>3F</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x3F""This function creates a curve fitted on the selected intruments"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x38""This function provide Schur decomposition's eigen values"),</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
@@ -539,11 +542,11 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x11""Object Identifier"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x11""Matrix identifier"),</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
@@ -556,7 +559,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -573,7 +576,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -590,7 +593,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -607,7 +610,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -621,14 +624,14 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
-        <v>1D</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1D""The instrument selection rule"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x40""This function provide the eigen vectors of Schur's decomposition"),</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
@@ -638,14 +641,14 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
-        <v>1A</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> TempStrNoSize("\x1A""The fixed rate of the swap"),</v>
+        <v xml:space="preserve"> TempStrNoSize("\x17""The matrix to decompose"),</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
@@ -658,7 +661,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -675,7 +678,7 @@
         <v>2A</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -692,7 +695,7 @@
         <v>1A</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -709,7 +712,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -726,7 +729,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -743,7 +746,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="str">
         <f>IF(B21="",""," TempStrNoSize("&amp;""""&amp;"\x"&amp;IF(HEX2DEC(A21)&lt;16,"0","")&amp;A21&amp;""""&amp;""""&amp;B21&amp;""""&amp;"),")</f>
